--- a/scan_device/01.requirments/requirments.xlsx
+++ b/scan_device/01.requirments/requirments.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\telua_esp32_sensor\scan_device\01.requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959DE4B5-1EEF-41B1-AEC3-A636DD8A61AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE73A189-71CD-495B-87BC-D31E6F65490A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24840" yWindow="-2490" windowWidth="28080" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24840" yWindow="-2490" windowWidth="28080" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GUI_Android" sheetId="1" r:id="rId1"/>
     <sheet name="GUI_IPhone" sheetId="3" r:id="rId2"/>
     <sheet name="QR-WiFi" sheetId="4" r:id="rId3"/>
-    <sheet name="Restful API" sheetId="2" r:id="rId4"/>
-    <sheet name="QR-Register_device" sheetId="5" r:id="rId5"/>
+    <sheet name="QR-Register_device" sheetId="5" r:id="rId4"/>
+    <sheet name="Restful API" sheetId="2" r:id="rId5"/>
     <sheet name="Testing " sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -123,18 +123,18 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -666,7 +666,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,50 +695,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AEC3559-87CC-410B-A781-02BFA737F636}">
   <dimension ref="N11:V15"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="N15" sqref="N15:V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="11" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N11" s="3" t="s">
+      <c r="N11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
     </row>
     <row r="12" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N12" s="3" t="s">
+      <c r="N12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
     </row>
     <row r="15" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N15" s="5" t="s">
+      <c r="N15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -752,6 +752,66 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B3EF4DB-3D4E-4674-97DB-AD22355AA87C}">
+  <dimension ref="N8:V10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="8" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+    </row>
+    <row r="9" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+    </row>
+    <row r="10" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="N8:V8"/>
+    <mergeCell ref="N9:V9"/>
+    <mergeCell ref="N10:V10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{610D331D-9735-43BA-B6AA-F6F3548DC271}">
   <dimension ref="A1:M6"/>
   <sheetViews>
@@ -765,20 +825,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -786,37 +846,37 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -833,100 +893,40 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B3EF4DB-3D4E-4674-97DB-AD22355AA87C}">
-  <dimension ref="N8:V10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N10" sqref="N10:V10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="8" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-    </row>
-    <row r="9" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-    </row>
-    <row r="10" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="N8:V8"/>
-    <mergeCell ref="N9:V9"/>
-    <mergeCell ref="N10:V10"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B11C2927-BD7C-494A-8741-FD82225BB411}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/scan_device/01.requirments/requirments.xlsx
+++ b/scan_device/01.requirments/requirments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\telua_esp32_sensor\scan_device\01.requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE73A189-71CD-495B-87BC-D31E6F65490A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7327E19-F3DF-4922-BF11-4A198681936F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24840" yWindow="-2490" windowWidth="28080" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24840" yWindow="-2490" windowWidth="28080" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GUI_Android" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>https://telua.co/services/bot/v1/production/management/esp32/device/add</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>Ghi chú: Không cần lưu thông tin Wifi and mật  khẩu vô  setting</t>
+  </si>
+  <si>
+    <t>Ghi chú:  Nếu returnCode = 1 là thành công,  Các trường hợp khác nội dung returnCodeName lên thông báo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thông báo nếu thiết bị không thể kết nối internet </t>
   </si>
 </sst>
 </file>
@@ -120,7 +126,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -137,6 +143,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -666,7 +674,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,7 +703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AEC3559-87CC-410B-A781-02BFA737F636}">
   <dimension ref="N11:V15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N15" sqref="N15:V15"/>
     </sheetView>
   </sheetViews>
@@ -753,15 +761,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B3EF4DB-3D4E-4674-97DB-AD22355AA87C}">
-  <dimension ref="N8:V10"/>
+  <dimension ref="N8:W14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="8" spans="14:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="14:23" x14ac:dyDescent="0.25">
       <c r="N8" s="1" t="s">
         <v>6</v>
       </c>
@@ -774,7 +782,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
     </row>
-    <row r="9" spans="14:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="14:23" x14ac:dyDescent="0.25">
       <c r="N9" s="1" t="s">
         <v>7</v>
       </c>
@@ -787,7 +795,7 @@
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
     </row>
-    <row r="10" spans="14:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="14:23" x14ac:dyDescent="0.25">
       <c r="N10" s="1" t="s">
         <v>8</v>
       </c>
@@ -800,14 +808,41 @@
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
     </row>
+    <row r="13" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+    </row>
+    <row r="14" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="O14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="N8:V8"/>
     <mergeCell ref="N9:V9"/>
     <mergeCell ref="N10:V10"/>
+    <mergeCell ref="O14:W14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/scan_device/01.requirments/requirments.xlsx
+++ b/scan_device/01.requirments/requirments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\telua_esp32_sensor\scan_device\01.requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7327E19-F3DF-4922-BF11-4A198681936F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699E35EC-84D3-41AE-9E3F-CA63011E68D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24840" yWindow="-2490" windowWidth="28080" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -126,8 +126,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -143,8 +144,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -315,22 +314,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>460527</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>23926</xdr:rowOff>
+      <xdr:rowOff>32725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C2C0743-4A3F-A789-16F4-6EF078CE0887}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18BFA702-2F74-6C4D-BC34-DDB0B0CF158E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -346,8 +345,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="971550" y="733425"/>
-          <a:ext cx="4975377" cy="7291501"/>
+          <a:off x="1181100" y="962025"/>
+          <a:ext cx="5229225" cy="7071700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -710,43 +709,43 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="11" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N11" s="1" t="s">
+      <c r="N11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
     </row>
     <row r="12" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N12" s="1" t="s">
+      <c r="N12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
     </row>
     <row r="15" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N15" s="2" t="s">
+      <c r="N15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -763,75 +762,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B3EF4DB-3D4E-4674-97DB-AD22355AA87C}">
   <dimension ref="N8:W14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="8" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N8" s="1" t="s">
+      <c r="N8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
     </row>
     <row r="9" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N9" s="1" t="s">
+      <c r="N9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
     </row>
     <row r="10" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N10" s="1" t="s">
+      <c r="N10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
     </row>
     <row r="13" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N13" s="7" t="s">
+      <c r="N13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
     </row>
     <row r="14" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="O14" s="1" t="s">
+      <c r="O14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -860,20 +852,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -881,37 +873,37 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -939,29 +931,29 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/scan_device/01.requirments/requirments.xlsx
+++ b/scan_device/01.requirments/requirments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\telua_esp32_sensor\scan_device\01.requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699E35EC-84D3-41AE-9E3F-CA63011E68D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76556F09-E9D9-454C-B32D-0C8BBB4F77CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24840" yWindow="-2490" windowWidth="28080" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24840" yWindow="-2490" windowWidth="28080" windowHeight="16440" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GUI_Android" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="QR-Register_device" sheetId="5" r:id="rId4"/>
     <sheet name="Restful API" sheetId="2" r:id="rId5"/>
     <sheet name="Testing " sheetId="6" r:id="rId6"/>
+    <sheet name="TextID" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>https://telua.co/services/bot/v1/production/management/esp32/device/add</t>
   </si>
@@ -75,6 +76,30 @@
   </si>
   <si>
     <t xml:space="preserve">Thông báo nếu thiết bị không thể kết nối internet </t>
+  </si>
+  <si>
+    <t>QR-Wifi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -&gt; QR-Kết nối thiết bị</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đặt mã QR vào khung để lấy thông tin Wi-Fi của thiết bị </t>
+  </si>
+  <si>
+    <t>-&gt;  Quét mã QR trên thiết bị để kết nối tới thiết bị thông qua WiFi Hotspot.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đặt mã QR vào khung để đăng ký thiết bị </t>
+  </si>
+  <si>
+    <t>Quét -&gt;  Quét WiFi Hotspot</t>
+  </si>
+  <si>
+    <t>button chỗ  QR- đăng ký -&gt;   đổi thành Đăng ký ( popup)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -&gt; Quét mã QR trên thiết bị để đăng ký thiết bị tới tIoT.</t>
   </si>
 </sst>
 </file>
@@ -762,7 +787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B3EF4DB-3D4E-4674-97DB-AD22355AA87C}">
   <dimension ref="N8:W14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
@@ -963,4 +988,62 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE8DD572-F2C5-4F29-8770-B8BEE843AF98}">
+  <dimension ref="A1:A15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="103.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>